--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1110164.681822886</v>
+        <v>1104160.472007607</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969142</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10912284.68722686</v>
+        <v>11168717.6589105</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.14763241892726</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>192.5370669569884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.6674580053636</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.26003672910142</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>270.3362166071165</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>125.9386813819909</v>
+        <v>13.33835225137439</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>266.8321196145432</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.98153210089562</v>
       </c>
       <c r="H10" t="n">
-        <v>108.4905777769219</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.28762422566525</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>52.23490948285976</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>147.6364325960793</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>62.18842302760095</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>82.57906258117926</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>32.27552175740353</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>211.1474991249037</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>185.4048731212365</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>177.6965697803359</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>134.5665975534142</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>126.6321535627876</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.52079624060555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>272.8825050936845</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792696</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2884.252265792696</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>2689.770379977556</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4518,22 +4518,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658019</v>
+        <v>1872.48643018031</v>
       </c>
       <c r="V4" t="n">
-        <v>1705.527932658019</v>
+        <v>1617.801941974423</v>
       </c>
       <c r="W4" t="n">
-        <v>1416.110762621058</v>
+        <v>1328.384771937462</v>
       </c>
       <c r="X4" t="n">
-        <v>1416.110762621058</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y4" t="n">
-        <v>1195.318183477528</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2736.270520058755</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2362.804761797675</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.9544330261738</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1710.253301571282</v>
+        <v>1913.821465006296</v>
       </c>
       <c r="T7" t="n">
-        <v>1488.486686140809</v>
+        <v>1913.821465006296</v>
       </c>
       <c r="U7" t="n">
-        <v>1488.486686140809</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="V7" t="n">
-        <v>1233.802197934922</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>944.385027897961</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>716.3954769999436</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>495.6028978564135</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2739.810011970445</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.3439163053883</v>
+        <v>753.0765981364625</v>
       </c>
       <c r="C10" t="n">
-        <v>718.3439163053883</v>
+        <v>584.1404152085556</v>
       </c>
       <c r="D10" t="n">
-        <v>568.2272768930526</v>
+        <v>434.0237757962199</v>
       </c>
       <c r="E10" t="n">
-        <v>420.3141833106595</v>
+        <v>286.1106822138267</v>
       </c>
       <c r="F10" t="n">
-        <v>273.4242358127491</v>
+        <v>139.2207347159164</v>
       </c>
       <c r="G10" t="n">
-        <v>273.4242358127491</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V10" t="n">
-        <v>1638.191681214136</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W10" t="n">
-        <v>1348.774511177176</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="X10" t="n">
-        <v>1120.784960279158</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y10" t="n">
-        <v>899.9923811356281</v>
+        <v>934.7250629667022</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.318139675982</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.35562273557</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3256.628423401427</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3050.65067578565</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>2797.120199059486</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2466.057311715915</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2466.057311715915</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2466.057311715915</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2075.917979740103</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8175152271517</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8175152271517</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>362.8175152271517</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>362.8175152271517</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>362.8175152271517</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271517</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1232.150970528558</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1232.150970528558</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3066.187443443257</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3066.187443443257</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2735.124556099686</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2382.355900829572</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2008.890142568492</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>1618.75081059268</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1562.365012146403</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1273.262145272047</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1273.262145272047</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1273.262145272047</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1273.262145272047</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,31 +5524,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560544</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487568</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.378057281681</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5770,16 +5770,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4517.069482196494</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4517.069482196494</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196494</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990608</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953647</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101294</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1501.108204237296</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.734188001555</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>2878.798005073648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661313</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4511.341667771992</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>4222.26644111619</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>3967.581952910303</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>3678.164782873342</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>3450.175231975325</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>3229.382652831795</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.65264778894</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861033</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448698</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4487.861592536436</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4268.260127559377</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3979.184900903575</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3724.500412697688</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>3435.083242660728</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>3207.09369176271</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>2986.30111261918</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2951.54259528685</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2782.606412358944</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2632.489772946608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2484.576679364215</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4634.751540034345</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4415.150075057287</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4126.074848401485</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3871.390360195598</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3581.973190158637</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3353.98363926062</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3133.19106011709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3945.692255294816</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3691.00776708893</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3401.590597051969</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3173.601046153952</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3173.601046153952</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.90013756251058</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>56.28153754354088</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>105.0583980710269</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>136.96988669499</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>75.37549921168733</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>66.73277020259152</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>39.70888054695234</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>46.45968844823039</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.505489761039</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>13.30196929555962</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814761.9498119347</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814761.9498119348</v>
+        <v>961816.0218660283</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>961816.0218660284</v>
+        <v>961816.0218660283</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>961816.0218660284</v>
+        <v>961816.0218660283</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>961816.0218660284</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>961816.0218660284</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>472099.0176719632</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
@@ -26337,7 +26337,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217536</v>
@@ -26346,13 +26346,13 @@
         <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598201</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545136</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820636</v>
+      </c>
+      <c r="C4" t="n">
         <v>93403.78684820632</v>
       </c>
-      <c r="C4" t="n">
-        <v>93403.78684820631</v>
-      </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="E4" t="n">
-        <v>14040.01085717763</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14040.01085717763</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1057983.455465229</v>
       </c>
       <c r="C6" t="n">
-        <v>270761.2902623636</v>
+        <v>270761.2902623635</v>
       </c>
       <c r="D6" t="n">
-        <v>270761.2902623636</v>
+        <v>270761.2902623634</v>
       </c>
       <c r="E6" t="n">
-        <v>303800.312397988</v>
+        <v>23010.17185927978</v>
       </c>
       <c r="F6" t="n">
-        <v>303800.312397988</v>
+        <v>348422.6336666346</v>
       </c>
       <c r="G6" t="n">
-        <v>38926.9794611712</v>
+        <v>348422.6336666346</v>
       </c>
       <c r="H6" t="n">
-        <v>348770.0129209915</v>
+        <v>348422.6336666346</v>
       </c>
       <c r="I6" t="n">
-        <v>348770.0129209915</v>
+        <v>348422.6336666346</v>
       </c>
       <c r="J6" t="n">
-        <v>131238.810523714</v>
+        <v>130891.4312693571</v>
       </c>
       <c r="K6" t="n">
-        <v>348770.0129209916</v>
+        <v>348422.6336666346</v>
       </c>
       <c r="L6" t="n">
-        <v>348770.0129209915</v>
+        <v>348422.6336666346</v>
       </c>
       <c r="M6" t="n">
-        <v>348770.0129209915</v>
+        <v>263367.6057311228</v>
       </c>
       <c r="N6" t="n">
-        <v>348770.0129209916</v>
+        <v>348422.6336666346</v>
       </c>
       <c r="O6" t="n">
-        <v>266634.1823255401</v>
+        <v>348422.6336666346</v>
       </c>
       <c r="P6" t="n">
-        <v>348770.0129209916</v>
+        <v>348422.6336666344</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26798,16 +26798,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483757</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,37 +27020,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.5862092445533</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>193.7008716990652</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.16452217657373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>231.9518014765115</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>78.90475211029656</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>63.83034394945096</v>
+        <v>176.4306730800675</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>82.40884910286985</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.0442761581326</v>
       </c>
       <c r="H10" t="n">
-        <v>36.26443713739889</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>351.1157147121648</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>574.6535388222619</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>213.2742757378059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>432.0572943778175</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1104160.472007607</v>
+        <v>1107315.391349828</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11168717.6589105</v>
+        <v>10912284.68722686</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.14763241892726</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>179.9948012226681</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>75.41231307284862</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>54.26003672910142</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>223.4096551115036</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.7172236952955</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>13.33835225137439</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>231.4760253798848</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>227.7172236952955</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.98153210089562</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>112.0808863526773</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>108.506380051737</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>250.4305524660645</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>31.84538444784388</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>62.18842302760095</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>164.949354794487</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>32.27552175740353</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060469</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716168</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>73.98898794535445</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>112.5284434523312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>107.3870054807226</v>
       </c>
       <c r="C31" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>126.6321535627876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>107.3870054807226</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="45">
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3033.502222608318</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2702.439335264748</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180638</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>697.9541770656748</v>
+        <v>1021.570547268603</v>
       </c>
       <c r="C4" t="n">
-        <v>529.0179941377679</v>
+        <v>852.6343643406964</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>702.5177249283606</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>554.6046313459675</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>407.7146838480571</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>240.0118472227761</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1872.48643018031</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1617.801941974423</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>1328.384771937462</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>1100.395221039445</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y4" t="n">
-        <v>879.6026418959145</v>
+        <v>1203.219012098843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2185.045504370169</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1816.082987429757</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1457.817288823006</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,16 +4579,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2571.645344434291</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1913.821465006296</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T7" t="n">
-        <v>1913.821465006296</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U7" t="n">
-        <v>1624.71859813194</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3091.791654558782</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2760.728767215212</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410103</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410103</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364625</v>
+        <v>793.5809963705854</v>
       </c>
       <c r="C10" t="n">
-        <v>584.1404152085556</v>
+        <v>624.6448134426785</v>
       </c>
       <c r="D10" t="n">
-        <v>434.0237757962199</v>
+        <v>474.5281740303427</v>
       </c>
       <c r="E10" t="n">
-        <v>286.1106822138267</v>
+        <v>326.6150804479496</v>
       </c>
       <c r="F10" t="n">
-        <v>139.2207347159164</v>
+        <v>179.7251329500392</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>179.7251329500392</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214137</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.50719300825</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.50719300825</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>1196.022040344355</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667022</v>
+        <v>975.2294612008251</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>881.9485703618902</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>592.5314003249296</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2392.57698645293</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2019.11122819185</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721979</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2253.988764961266</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179085</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>1760.67903819507</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1760.67903819507</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1471.576171320714</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1216.891683114827</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>927.4745130778666</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>699.4849621798493</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,25 +5503,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5533,22 +5533,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,55 +5740,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="26">
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6414,22 +6414,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
@@ -6469,19 +6469,19 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6490,7 +6490,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
         <v>705.9324428257312</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>265.0731740618515</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>97.87707477673149</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7140,7 +7140,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7320,10 +7320,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7557,10 +7557,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>261.2247206267321</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.70709085776349</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>317.3955842695691</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>105.0583980710269</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>24.81967053695496</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.0033420516642</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124962</v>
+        <v>121.5862749664503</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>72.44497470121472</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>32.89260457060006</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24654,7 +24654,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>136.2749052347519</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>961816.0218660282</v>
+        <v>814761.9498119347</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>961816.0218660283</v>
+        <v>814761.9498119347</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>961816.0218660284</v>
+        <v>961816.0218660283</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660284</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>961816.0218660282</v>
+        <v>961816.0218660283</v>
       </c>
     </row>
     <row r="13">
@@ -26322,19 +26322,19 @@
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
+        <v>392146.6638165586</v>
+      </c>
+      <c r="F2" t="n">
+        <v>392146.6638165588</v>
+      </c>
+      <c r="G2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="I2" t="n">
         <v>464109.2948217538</v>
-      </c>
-      <c r="F2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217536</v>
@@ -26343,19 +26343,19 @@
         <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="M2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="M2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598208</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545152</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,16 +26420,16 @@
         <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14040.01085717763</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14040.01085717763</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>270761.2902623635</v>
       </c>
       <c r="D6" t="n">
-        <v>270761.2902623634</v>
+        <v>270761.2902623637</v>
       </c>
       <c r="E6" t="n">
-        <v>23010.17185927978</v>
+        <v>303452.6934681816</v>
       </c>
       <c r="F6" t="n">
-        <v>348422.6336666346</v>
+        <v>303452.6934681819</v>
       </c>
       <c r="G6" t="n">
-        <v>348422.6336666346</v>
+        <v>38892.24153573489</v>
       </c>
       <c r="H6" t="n">
-        <v>348422.6336666346</v>
+        <v>348735.2749955558</v>
       </c>
       <c r="I6" t="n">
-        <v>348422.6336666346</v>
+        <v>348735.2749955563</v>
       </c>
       <c r="J6" t="n">
-        <v>130891.4312693571</v>
+        <v>131204.0725982783</v>
       </c>
       <c r="K6" t="n">
-        <v>348422.6336666346</v>
+        <v>348735.2749955557</v>
       </c>
       <c r="L6" t="n">
-        <v>348422.6336666346</v>
+        <v>348735.2749955559</v>
       </c>
       <c r="M6" t="n">
-        <v>263367.6057311228</v>
+        <v>348735.2749955557</v>
       </c>
       <c r="N6" t="n">
-        <v>348422.6336666346</v>
+        <v>348735.2749955559</v>
       </c>
       <c r="O6" t="n">
-        <v>348422.6336666346</v>
+        <v>266599.4444001042</v>
       </c>
       <c r="P6" t="n">
-        <v>348422.6336666344</v>
+        <v>348735.2749955558</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>341.3068326973564</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022923</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.5862092445533</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>71.00037073623383</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>69.34270184147216</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.9518014765115</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>158.5207149607582</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.5207149607581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>176.4306730800675</v>
+        <v>75.50340795433981</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>19.51914657901716</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.5207149607581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.0442761581326</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>32.67412856164353</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>436.0678650906015</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>302.0934576762713</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
